--- a/project/CV/CV_34.xlsx
+++ b/project/CV/CV_34.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,76 +498,76 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bernalillo</t>
+          <t>atlantic</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>new jersey</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4479670</v>
+        <v>1957999</v>
       </c>
       <c r="D2" t="n">
-        <v>75511</v>
+        <v>77399</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F2" t="n">
-        <v>35001</v>
+        <v>34001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.036</v>
+        <v>0.019</v>
       </c>
       <c r="H2" t="n">
-        <v>0.014</v>
+        <v>0.041</v>
       </c>
       <c r="I2" t="n">
-        <v>0.057</v>
+        <v>0.03</v>
       </c>
       <c r="J2" t="n">
-        <v>0.135</v>
+        <v>0.176</v>
       </c>
       <c r="K2" t="n">
-        <v>0.758</v>
+        <v>0.7340000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>catron</t>
+          <t>bergen</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>new jersey</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6098</v>
+        <v>9006227</v>
       </c>
       <c r="D3" t="n">
-        <v>426</v>
+        <v>600835</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F3" t="n">
-        <v>35003</v>
+        <v>34003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05400000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="H3" t="n">
-        <v>0.039</v>
+        <v>0.014</v>
       </c>
       <c r="I3" t="n">
-        <v>0.036</v>
+        <v>0.053</v>
       </c>
       <c r="J3" t="n">
-        <v>0.109</v>
+        <v>0.151</v>
       </c>
       <c r="K3" t="n">
         <v>0.762</v>
@@ -576,1210 +576,742 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>chaves</t>
+          <t>burlington</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>new jersey</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>752288</v>
+        <v>3237906</v>
       </c>
       <c r="D4" t="n">
-        <v>9243</v>
+        <v>141140</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F4" t="n">
-        <v>35005</v>
+        <v>34005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07400000000000001</v>
+        <v>0.023</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I4" t="n">
-        <v>0.108</v>
+        <v>0.043</v>
       </c>
       <c r="J4" t="n">
-        <v>0.144</v>
+        <v>0.134</v>
       </c>
       <c r="K4" t="n">
-        <v>0.634</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cibola</t>
+          <t>camden</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>new jersey</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>343482</v>
+        <v>4392487</v>
       </c>
       <c r="D5" t="n">
-        <v>9358</v>
+        <v>178183</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F5" t="n">
-        <v>35006</v>
+        <v>34007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003</v>
+        <v>0.028</v>
       </c>
       <c r="H5" t="n">
-        <v>0.059</v>
+        <v>0.005</v>
       </c>
       <c r="I5" t="n">
-        <v>0.014</v>
+        <v>0.027</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.137</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8390000000000001</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>colfax</t>
+          <t>cape may</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>new jersey</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>55497</v>
+        <v>498223</v>
       </c>
       <c r="D6" t="n">
-        <v>1983</v>
+        <v>28106</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F6" t="n">
-        <v>35007</v>
+        <v>34009</v>
       </c>
       <c r="G6" t="n">
-        <v>0.041</v>
+        <v>0.013</v>
       </c>
       <c r="H6" t="n">
-        <v>0.019</v>
+        <v>0.011</v>
       </c>
       <c r="I6" t="n">
-        <v>0.091</v>
+        <v>0.022</v>
       </c>
       <c r="J6" t="n">
-        <v>0.106</v>
+        <v>0.214</v>
       </c>
       <c r="K6" t="n">
-        <v>0.743</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>curry</t>
+          <t>cumberland</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>new jersey</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>473515</v>
+        <v>1408846</v>
       </c>
       <c r="D7" t="n">
-        <v>4500</v>
+        <v>47400</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F7" t="n">
-        <v>35009</v>
+        <v>34011</v>
       </c>
       <c r="G7" t="n">
-        <v>0.011</v>
+        <v>0.032</v>
       </c>
       <c r="H7" t="n">
-        <v>0.129</v>
+        <v>0.006</v>
       </c>
       <c r="I7" t="n">
-        <v>0.111</v>
+        <v>0.058</v>
       </c>
       <c r="J7" t="n">
-        <v>0.209</v>
+        <v>0.142</v>
       </c>
       <c r="K7" t="n">
-        <v>0.54</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>de baca</t>
+          <t>essex</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>new jersey</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8159</v>
+        <v>8698367</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>622185</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F8" t="n">
-        <v>35011</v>
+        <v>34013</v>
       </c>
       <c r="G8" t="n">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.014</v>
       </c>
       <c r="I8" t="n">
         <v>0.08500000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>0.098</v>
+        <v>0.183</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7120000000000001</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>doña ana</t>
+          <t>gloucester</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>new jersey</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2078493</v>
+        <v>2065447</v>
       </c>
       <c r="D9" t="n">
-        <v>31022</v>
+        <v>73607</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F9" t="n">
-        <v>35013</v>
+        <v>34015</v>
       </c>
       <c r="G9" t="n">
-        <v>0.011</v>
+        <v>0.047</v>
       </c>
       <c r="H9" t="n">
-        <v>0.044</v>
+        <v>0.01</v>
       </c>
       <c r="I9" t="n">
-        <v>0.036</v>
+        <v>0.052</v>
       </c>
       <c r="J9" t="n">
-        <v>0.097</v>
+        <v>0.145</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>eddy</t>
+          <t>hudson</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>new jersey</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>499657</v>
+        <v>8338891</v>
       </c>
       <c r="D10" t="n">
-        <v>7743</v>
+        <v>442095</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F10" t="n">
-        <v>35015</v>
+        <v>34017</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2</v>
+        <v>0.022</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.019</v>
       </c>
       <c r="I10" t="n">
-        <v>0.092</v>
+        <v>0.077</v>
       </c>
       <c r="J10" t="n">
-        <v>0.239</v>
+        <v>0.211</v>
       </c>
       <c r="K10" t="n">
-        <v>0.399</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>hunterdon</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>new jersey</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>95884</v>
+        <v>621025</v>
       </c>
       <c r="D11" t="n">
-        <v>1674</v>
+        <v>33866</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F11" t="n">
-        <v>35017</v>
+        <v>34019</v>
       </c>
       <c r="G11" t="n">
-        <v>0.043</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0.031</v>
+        <v>0.038</v>
       </c>
       <c r="I11" t="n">
-        <v>0.15</v>
+        <v>0.065</v>
       </c>
       <c r="J11" t="n">
-        <v>0.205</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5720000000000001</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>guadalupe</t>
+          <t>mercer</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>new jersey</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>45299</v>
+        <v>3353570</v>
       </c>
       <c r="D12" t="n">
-        <v>526</v>
+        <v>181810</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F12" t="n">
-        <v>35019</v>
+        <v>34021</v>
       </c>
       <c r="G12" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.014</v>
       </c>
-      <c r="H12" t="n">
-        <v>0.049</v>
-      </c>
       <c r="I12" t="n">
-        <v>0.07200000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.098</v>
+        <v>0.162</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7659999999999999</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>harding</t>
+          <t>middlesex</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>new jersey</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>902</v>
+        <v>7997809</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>413622</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F13" t="n">
-        <v>35021</v>
+        <v>34023</v>
       </c>
       <c r="G13" t="n">
-        <v>0.057</v>
+        <v>0.02</v>
       </c>
       <c r="H13" t="n">
-        <v>0.152</v>
+        <v>0.016</v>
       </c>
       <c r="I13" t="n">
-        <v>0.062</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>0.115</v>
+        <v>0.146</v>
       </c>
       <c r="K13" t="n">
-        <v>0.614</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hidalgo</t>
+          <t>monmouth</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>new jersey</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35897</v>
+        <v>5248099</v>
       </c>
       <c r="D14" t="n">
-        <v>752</v>
+        <v>254418</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F14" t="n">
-        <v>35023</v>
+        <v>34025</v>
       </c>
       <c r="G14" t="n">
-        <v>0.056</v>
+        <v>0.01</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.022</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1860000000000001</v>
+        <v>0.041</v>
       </c>
       <c r="J14" t="n">
-        <v>0.153</v>
+        <v>0.164</v>
       </c>
       <c r="K14" t="n">
-        <v>0.569</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>lea</t>
+          <t>morris</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>new jersey</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>755335</v>
+        <v>3586206</v>
       </c>
       <c r="D15" t="n">
-        <v>9692</v>
+        <v>243044</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F15" t="n">
-        <v>35025</v>
+        <v>34027</v>
       </c>
       <c r="G15" t="n">
-        <v>0.112</v>
+        <v>0.023</v>
       </c>
       <c r="H15" t="n">
-        <v>0.024</v>
+        <v>0.018</v>
       </c>
       <c r="I15" t="n">
-        <v>0.115</v>
+        <v>0.049</v>
       </c>
       <c r="J15" t="n">
-        <v>0.331</v>
+        <v>0.191</v>
       </c>
       <c r="K15" t="n">
-        <v>0.418</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>lincoln</t>
+          <t>ocean</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>new jersey</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>122662</v>
+        <v>5524233</v>
       </c>
       <c r="D16" t="n">
-        <v>1344</v>
+        <v>314314</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F16" t="n">
-        <v>35027</v>
+        <v>34029</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04</v>
+        <v>0.012</v>
       </c>
       <c r="H16" t="n">
-        <v>0.012</v>
+        <v>0.056</v>
       </c>
       <c r="I16" t="n">
         <v>0.055</v>
       </c>
       <c r="J16" t="n">
-        <v>0.162</v>
+        <v>0.104</v>
       </c>
       <c r="K16" t="n">
-        <v>0.731</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>los alamos</t>
+          <t>passaic</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>new jersey</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30457</v>
+        <v>7428446</v>
       </c>
       <c r="D17" t="n">
-        <v>64</v>
+        <v>363548</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F17" t="n">
-        <v>35028</v>
+        <v>34031</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001</v>
+        <v>0.029</v>
       </c>
       <c r="H17" t="n">
-        <v>0.041</v>
+        <v>0.015</v>
       </c>
       <c r="I17" t="n">
-        <v>0.076</v>
+        <v>0.063</v>
       </c>
       <c r="J17" t="n">
-        <v>0.173</v>
+        <v>0.138</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7090000000000001</v>
+        <v>0.7559999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>luna</t>
+          <t>salem</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>new jersey</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>277663</v>
+        <v>439581</v>
       </c>
       <c r="D18" t="n">
-        <v>4730</v>
+        <v>24704</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F18" t="n">
-        <v>35029</v>
+        <v>34033</v>
       </c>
       <c r="G18" t="n">
-        <v>0.105</v>
+        <v>0.041</v>
       </c>
       <c r="H18" t="n">
-        <v>0.046</v>
+        <v>0.043</v>
       </c>
       <c r="I18" t="n">
-        <v>0.024</v>
+        <v>0.036</v>
       </c>
       <c r="J18" t="n">
-        <v>0.11</v>
+        <v>0.154</v>
       </c>
       <c r="K18" t="n">
-        <v>0.715</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>mckinley</t>
+          <t>somerset</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>new jersey</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1573969</v>
+        <v>2389893</v>
       </c>
       <c r="D19" t="n">
-        <v>70083</v>
+        <v>166874</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F19" t="n">
-        <v>35031</v>
+        <v>34035</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01</v>
+        <v>0.016</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06</v>
+        <v>0.027</v>
       </c>
       <c r="I19" t="n">
-        <v>0.008</v>
+        <v>0.046</v>
       </c>
       <c r="J19" t="n">
-        <v>0.202</v>
+        <v>0.12</v>
       </c>
       <c r="K19" t="n">
-        <v>0.721</v>
+        <v>0.7909999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>mora</t>
+          <t>sussex</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>new jersey</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9961</v>
+        <v>737742</v>
       </c>
       <c r="D20" t="n">
-        <v>230</v>
+        <v>57377</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F20" t="n">
-        <v>35033</v>
+        <v>34037</v>
       </c>
       <c r="G20" t="n">
-        <v>0.002</v>
+        <v>0.02</v>
       </c>
       <c r="H20" t="n">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="I20" t="n">
-        <v>0.067</v>
+        <v>0.029</v>
       </c>
       <c r="J20" t="n">
-        <v>0.098</v>
+        <v>0.205</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8059999999999999</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>otero</t>
+          <t>union</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>new jersey</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>478161</v>
+        <v>7154425</v>
       </c>
       <c r="D21" t="n">
-        <v>5186</v>
+        <v>397691</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F21" t="n">
-        <v>35035</v>
+        <v>34039</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07400000000000001</v>
+        <v>0.012</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03</v>
+        <v>0.011</v>
       </c>
       <c r="I21" t="n">
-        <v>0.143</v>
+        <v>0.059</v>
       </c>
       <c r="J21" t="n">
-        <v>0.158</v>
+        <v>0.202</v>
       </c>
       <c r="K21" t="n">
-        <v>0.595</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>quay</t>
+          <t>warren</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>new mexico</t>
+          <t>new jersey</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>38005</v>
+        <v>657858</v>
       </c>
       <c r="D22" t="n">
-        <v>848</v>
+        <v>48674</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F22" t="n">
-        <v>35037</v>
+        <v>34041</v>
       </c>
       <c r="G22" t="n">
-        <v>0.049</v>
+        <v>0.035</v>
       </c>
       <c r="H22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="J22" t="n">
         <v>0.152</v>
       </c>
-      <c r="I22" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.159</v>
-      </c>
       <c r="K22" t="n">
-        <v>0.5710000000000001</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>rio arriba</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>new mexico</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>254731</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4903</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F23" t="n">
-        <v>35039</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.006999999999999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.05400000000000001</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.162</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.675</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>roosevelt</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>new mexico</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>164403</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3045</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F24" t="n">
-        <v>35041</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.009000000000000001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.08900000000000001</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.602</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>san juan</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>new mexico</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>1420475</v>
-      </c>
-      <c r="D25" t="n">
-        <v>60537</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F25" t="n">
-        <v>35045</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.555</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>san miguel</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>new mexico</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>84573</v>
-      </c>
-      <c r="D26" t="n">
-        <v>379</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F26" t="n">
-        <v>35047</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.119</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>sandoval</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>new mexico</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>924402</v>
-      </c>
-      <c r="D27" t="n">
-        <v>18437</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F27" t="n">
-        <v>35043</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.096</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.762</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>santa fe</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>new mexico</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>802887</v>
-      </c>
-      <c r="D28" t="n">
-        <v>7647</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F28" t="n">
-        <v>35049</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.8029999999999999</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>sierra</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>new mexico</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>53743</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2536</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F29" t="n">
-        <v>35051</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.239</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.659</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>socorro</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>new mexico</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>100030</v>
-      </c>
-      <c r="D30" t="n">
-        <v>4737</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F30" t="n">
-        <v>35053</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.193</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.746</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>taos</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>new mexico</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>122562</v>
-      </c>
-      <c r="D31" t="n">
-        <v>3531</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F31" t="n">
-        <v>35055</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.113</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.785</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>torrance</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>new mexico</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>64108</v>
-      </c>
-      <c r="D32" t="n">
-        <v>678</v>
-      </c>
-      <c r="E32" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F32" t="n">
-        <v>35057</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.097</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.696</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>union</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>new mexico</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>33054</v>
-      </c>
-      <c r="D33" t="n">
-        <v>774</v>
-      </c>
-      <c r="E33" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F33" t="n">
-        <v>35059</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.242</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.393</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>valencia</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>new mexico</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>518599</v>
-      </c>
-      <c r="D34" t="n">
-        <v>5771</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F34" t="n">
-        <v>35061</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.009000000000000001</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.648</v>
+        <v>0.7490000000000001</v>
       </c>
     </row>
   </sheetData>
